--- a/biology/Médecine/Maxime_Durand-Fardel/Maxime_Durand-Fardel.xlsx
+++ b/biology/Médecine/Maxime_Durand-Fardel/Maxime_Durand-Fardel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maxime Durand-Fardel, né Charles Louis Maxime Durand-Fardel à (Paris le 24 septembre 1815, et mort à Paris, 19 mars 1899) est un médecin et explorateur français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin à Paris, il devient inspecteur des eaux de Vichy et décide, en 1875, de partir avec sa femme, Laure, pour un voyage d'étude en Extrême-Orient. Il axe alors ses recherches sur la géographie médicale de la Chine, les rapports du climat avec les épidémies et l'état sanitaire des concessions européennes. Sa femme, Laure Durand-Fardel, effectue alors les mêmes tâches pour le Japon. Elle visite ainsi Tokyo et Osaka où elle rencontre Gustave Boissonnade et laisse, en 1879, un récit, De Marseille à Shanghai et Yedo. Récits d'une parisienne, relation de voyage qui obtient un vif succès de librairie.
 </t>
@@ -542,7 +556,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une rue de Vichy porte son nom.</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On lui doit de nombreux articles scientifiques, des traductions de l'italien en français ainsi que, entre autres ouvrages :
 Traité thérapeutique des eaux minérales de France et de l'étranger et de leur emploi dans les maladies chroniques, telles que les scrofules, les maladies de la peau, 1857
